--- a/2. 프로젝트 WBS.xlsx
+++ b/2. 프로젝트 WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E156B-E501-4A56-8093-EF79BEEC7A09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF036F9-E194-4475-BB74-255F1D1F7372}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>공정</t>
   </si>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디바이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타당성 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,58 +227,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수면 패턴 도식화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버/DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCTV를 위한 웹서버 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디바이스 및 안드로이드와 통신/프로토콜 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디바이스 제어/OpenCV 파트 병합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenCV 기능 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFT를 활용한 아기 울음소리 인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 생성/테이블 정의, 쿼리문 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디바이스 알고리즘 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안드로이드 푸쉬를 위한 서버 기능 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수면 유도를 위한 음악 재생 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스마트 아기 침대 하드웨어 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실제 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +292,6 @@
   </si>
   <si>
     <t>임동욱/김재정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도영/박정우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,6 +309,86 @@
   </si>
   <si>
     <t>조립 모델 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정우/임동욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도영/이규진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pytorch 동작여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹과 통신 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 안드로이드와 통신/프로토콜 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 인식 액티비티 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립순서 추천서버 API 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립순서 모델 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 인식 레이아웃 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행과정 레이아웃 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 인식 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 추가 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임동욱/김도영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이규진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임동욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -532,13 +556,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,30 +666,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,17 +708,32 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD159"/>
+  <dimension ref="A1:XFD154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,67 +1041,67 @@
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="19">
         <v>0</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="30">
+      <c r="J1" s="36"/>
+      <c r="K1" s="33">
         <v>43734</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>3</v>
@@ -1054,10 +1127,10 @@
       <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="8" t="s">
@@ -1104,14 +1177,14 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="8">
         <v>43732</v>
       </c>
@@ -1121,86 +1194,86 @@
       <c r="K3" s="8">
         <v>43734</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="27">
         <v>43735</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <v>43738</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <v>43739</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="27">
         <v>43740</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>43741</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="44">
         <v>43742</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="41">
         <v>43745</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <v>43746</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>43747</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="28">
         <v>43748</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>43749</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <v>43752</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="27">
         <v>43753</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="28">
         <v>43754</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <v>43755</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="28">
         <v>43756</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="27">
         <v>43759</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="27">
         <v>43760</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="28">
         <v>43761</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="28">
         <v>43762</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="28">
         <v>43763</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>48</v>
+      <c r="B4" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C55" si="0">IF(($K$1-F4+1)/E4&gt;=1,1,IF(($K$1-F4+1)/E4&lt;0,0, ($K$1-F4+1)/E4))</f>
+        <f t="shared" ref="C4:C24" si="0">IF(($K$1-F4+1)/E4&gt;=1,1,IF(($K$1-F4+1)/E4&lt;0,0, ($K$1-F4+1)/E4))</f>
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="15">
-        <f t="shared" ref="E4:E55" si="1">G4+1-F4</f>
+        <f t="shared" ref="E4:E24" si="1">G4+1-F4</f>
         <v>2</v>
       </c>
       <c r="F4" s="5">
@@ -1210,18 +1283,18 @@
         <v>43733</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="42"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1238,9 +1311,9 @@
       <c r="AF4" s="6"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
@@ -1249,13 +1322,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>43405</v>
+        <v>43732</v>
       </c>
       <c r="G5" s="5">
-        <v>43407</v>
+        <v>43732</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="10"/>
@@ -1266,8 +1339,8 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -1284,24 +1357,24 @@
       <c r="AF5" s="6"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>43407</v>
+        <v>43732</v>
       </c>
       <c r="G6" s="5">
-        <v>43412</v>
+        <v>43739</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="10"/>
@@ -1309,11 +1382,11 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -1330,9 +1403,9 @@
       <c r="AF6" s="6"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C7" s="18">
         <f t="shared" si="0"/>
@@ -1341,13 +1414,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>43408</v>
+        <v>43732</v>
       </c>
       <c r="G7" s="5">
-        <v>43412</v>
+        <v>43734</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="10"/>
@@ -1358,8 +1431,8 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -1376,35 +1449,35 @@
       <c r="AF7" s="6"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
-        <v>43409</v>
+        <v>43735</v>
       </c>
       <c r="G8" s="5">
-        <v>43412</v>
+        <v>43741</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="42"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -1421,24 +1494,24 @@
       <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>43409</v>
+        <v>43738</v>
       </c>
       <c r="G9" s="5">
-        <v>43412</v>
+        <v>43739</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="6"/>
@@ -1446,11 +1519,11 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="42"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1467,24 +1540,24 @@
       <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>43409</v>
+        <v>43738</v>
       </c>
       <c r="G10" s="5">
-        <v>43412</v>
+        <v>43739</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="6"/>
@@ -1492,11 +1565,11 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="42"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -1513,24 +1586,24 @@
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>43409</v>
+        <v>43735</v>
       </c>
       <c r="G11" s="5">
-        <v>43412</v>
+        <v>43735</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="6"/>
@@ -1541,8 +1614,8 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="42"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1559,40 +1632,40 @@
       <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37" t="s">
-        <v>47</v>
+      <c r="A12" s="40"/>
+      <c r="B12" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>43412</v>
+        <v>43734</v>
       </c>
       <c r="G12" s="5">
-        <v>43419</v>
+        <v>43741</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -1609,7 +1682,7 @@
       <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
@@ -1623,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>43412</v>
+        <v>43734</v>
       </c>
       <c r="G13" s="5">
-        <v>43412</v>
+        <v>43734</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="6"/>
@@ -1636,8 +1709,8 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -1654,24 +1727,24 @@
       <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
-        <v>43412</v>
+        <v>43735</v>
       </c>
       <c r="G14" s="5">
-        <v>43412</v>
+        <v>43738</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="6"/>
@@ -1679,11 +1752,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="42"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -1700,24 +1773,24 @@
       <c r="AF14" s="6"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>43416</v>
+        <v>43739</v>
       </c>
       <c r="G15" s="5">
-        <v>43419</v>
+        <v>43739</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="6"/>
@@ -1725,11 +1798,11 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="42"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1746,40 +1819,40 @@
       <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="38" t="s">
-        <v>44</v>
+      <c r="A16" s="40"/>
+      <c r="B16" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="5">
-        <v>43412</v>
+        <v>43735</v>
       </c>
       <c r="G16" s="5">
-        <v>43418</v>
+        <v>43739</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="42"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1796,24 +1869,24 @@
       <c r="AF16" s="6"/>
     </row>
     <row r="17" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="13" t="s">
-        <v>76</v>
+      <c r="A17" s="40"/>
+      <c r="B17" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5">
-        <v>43412</v>
+        <v>43735</v>
       </c>
       <c r="G17" s="5">
-        <v>43418</v>
+        <v>43740</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="6"/>
@@ -1821,11 +1894,11 @@
       <c r="K17" s="6"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="6"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -1842,13 +1915,13 @@
       <c r="AF17" s="6"/>
     </row>
     <row r="18" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="15">
@@ -1856,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="5">
-        <v>43412</v>
+        <v>43735</v>
       </c>
       <c r="G18" s="5">
-        <v>43416</v>
+        <v>43739</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="6"/>
@@ -1867,11 +1940,11 @@
       <c r="K18" s="6"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="42"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -1889,24 +1962,24 @@
       <c r="XFD18" s="6"/>
     </row>
     <row r="19" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C19" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
-        <v>43416</v>
+        <v>43735</v>
       </c>
       <c r="G19" s="5">
-        <v>43417</v>
+        <v>43739</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="6"/>
@@ -1914,11 +1987,11 @@
       <c r="K19" s="6"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -1935,24 +2008,24 @@
       <c r="AF19" s="6"/>
     </row>
     <row r="20" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="13" t="s">
-        <v>77</v>
+      <c r="A20" s="40"/>
+      <c r="B20" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="5">
-        <v>43416</v>
+        <v>43739</v>
       </c>
       <c r="G20" s="5">
-        <v>43418</v>
+        <v>43742</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="6"/>
@@ -1960,15 +2033,15 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="42"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -1981,24 +2054,24 @@
       <c r="AF20" s="6"/>
     </row>
     <row r="21" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C21" s="18">
         <f t="shared" ref="C21:C22" si="2">IF(($K$1-F21+1)/E21&gt;=1,1,IF(($K$1-F21+1)/E21&lt;0,0, ($K$1-F21+1)/E21))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15">
         <f t="shared" ref="E21:E22" si="3">G21+1-F21</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F21" s="5">
-        <v>43412</v>
+        <v>43739</v>
       </c>
       <c r="G21" s="5">
-        <v>43418</v>
+        <v>43741</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="6"/>
@@ -2006,15 +2079,15 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -2027,24 +2100,24 @@
       <c r="AF21" s="6"/>
     </row>
     <row r="22" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C22" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
-        <v>43412</v>
+        <v>43741</v>
       </c>
       <c r="G22" s="5">
-        <v>43416</v>
+        <v>43742</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="6"/>
@@ -2054,11 +2127,11 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2073,24 +2146,24 @@
       <c r="AF22" s="6"/>
     </row>
     <row r="23" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="13" t="s">
-        <v>82</v>
+      <c r="A23" s="40"/>
+      <c r="B23" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>43416</v>
+        <v>43742</v>
       </c>
       <c r="G23" s="5">
-        <v>43418</v>
+        <v>43742</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="6"/>
@@ -2101,12 +2174,12 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="42"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
@@ -2119,24 +2192,24 @@
       <c r="AF23" s="6"/>
     </row>
     <row r="24" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C24" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>43413</v>
+        <v>43742</v>
       </c>
       <c r="G24" s="5">
-        <v>43418</v>
+        <v>43742</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="6"/>
@@ -2147,12 +2220,12 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -2165,24 +2238,24 @@
       <c r="AF24" s="6"/>
     </row>
     <row r="25" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="4" t="s">
-        <v>53</v>
+      <c r="A25" s="40"/>
+      <c r="B25" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="18">
-        <f>IF(($K$1-F25+1)/E25&gt;=1,1,IF(($K$1-F25+1)/E25&lt;0,0, ($K$1-F25+1)/E25))</f>
-        <v>1</v>
+        <f t="shared" ref="C25:C27" si="4">IF(($K$1-F25+1)/E25&gt;=1,1,IF(($K$1-F25+1)/E25&lt;0,0, ($K$1-F25+1)/E25))</f>
+        <v>0</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="15">
         <f>G25+1-F25</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F25" s="5">
-        <v>43418</v>
+        <v>43739</v>
       </c>
       <c r="G25" s="5">
-        <v>43430</v>
+        <v>43742</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="6"/>
@@ -2190,91 +2263,91 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="42"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
     </row>
     <row r="26" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="37" t="s">
-        <v>71</v>
+      <c r="A26" s="40"/>
+      <c r="B26" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="18">
-        <f>IF(($K$1-F26+1)/E26&gt;=1,1,IF(($K$1-F26+1)/E26&lt;0,0, ($K$1-F26+1)/E26))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="15">
         <f>G26+1-F26</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>43419</v>
+        <v>43739</v>
       </c>
       <c r="G26" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H26" s="25"/>
+        <v>43741</v>
+      </c>
+      <c r="H26" s="24"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
     </row>
     <row r="27" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="40" t="s">
-        <v>56</v>
+      <c r="A27" s="40"/>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="18">
-        <f>IF(($K$1-F27+1)/E27&gt;=1,1,IF(($K$1-F27+1)/E27&lt;0,0, ($K$1-F27+1)/E27))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="15">
-        <f t="shared" ref="E27:E43" si="4">G27+1-F27</f>
-        <v>12</v>
+        <f t="shared" ref="E27" si="5">G27+1-F27</f>
+        <v>2</v>
       </c>
       <c r="F27" s="5">
-        <v>43419</v>
+        <v>43741</v>
       </c>
       <c r="G27" s="5">
-        <v>43430</v>
+        <v>43742</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="6"/>
@@ -2284,91 +2357,95 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="42"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6"/>
     </row>
-    <row r="28" spans="1:32 16384:16384" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="7" t="s">
-        <v>58</v>
+    <row r="28" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="18">
-        <f>IF(($K$1-F28+1)/E28&gt;=1,1,IF(($K$1-F28+1)/E28&lt;0,0, ($K$1-F28+1)/E28))</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="22"/>
+        <f t="shared" ref="C28:C43" si="6">IF(($K$1-F28+1)/E28&gt;=1,1,IF(($K$1-F28+1)/E28&lt;0,0, ($K$1-F28+1)/E28))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="15">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>G28+1-F28</f>
+        <v>2</v>
       </c>
       <c r="F28" s="5">
-        <v>43419</v>
+        <v>43745</v>
       </c>
       <c r="G28" s="5">
-        <v>43427</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+        <v>43746</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
     </row>
     <row r="29" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="7" t="s">
-        <v>64</v>
+      <c r="A29" s="40"/>
+      <c r="B29" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="C29" s="18">
-        <f>IF(($K$1-F29+1)/E29&gt;=1,1,IF(($K$1-F29+1)/E29&lt;0,0, ($K$1-F29+1)/E29))</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="15">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>G29+1-F29</f>
+        <v>7</v>
       </c>
       <c r="F29" s="5">
-        <v>43423</v>
+        <v>43746</v>
       </c>
       <c r="G29" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H29" s="21"/>
+        <v>43752</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2377,44 +2454,46 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="26"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6"/>
     </row>
     <row r="30" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="7" t="s">
-        <v>66</v>
+      <c r="A30" s="40"/>
+      <c r="B30" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="18">
-        <f>IF(($K$1-F30+1)/E30&gt;=1,1,IF(($K$1-F30+1)/E30&lt;0,0, ($K$1-F30+1)/E30))</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="15">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="E30:E31" si="7">G30+1-F30</f>
+        <v>6</v>
       </c>
       <c r="F30" s="5">
-        <v>43431</v>
+        <v>43747</v>
       </c>
       <c r="G30" s="5">
-        <v>43432</v>
-      </c>
-      <c r="H30" s="25"/>
+        <v>43752</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -2423,13 +2502,13 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
@@ -2441,164 +2520,166 @@
       <c r="AF30" s="6"/>
     </row>
     <row r="31" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C31" s="18">
-        <f>IF(($K$1-F31+1)/E31&gt;=1,1,IF(($K$1-F31+1)/E31&lt;0,0, ($K$1-F31+1)/E31))</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="6"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="22"/>
       <c r="E31" s="15">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="F31" s="5">
-        <v>43425</v>
+        <v>43747</v>
       </c>
       <c r="G31" s="5">
-        <v>43427</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+        <v>43752</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
     </row>
     <row r="32" spans="1:32 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="40" t="s">
-        <v>36</v>
+      <c r="A32" s="40"/>
+      <c r="B32" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="18">
-        <f>IF(($K$1-F32+1)/E32&gt;=1,1,IF(($K$1-F32+1)/E32&lt;0,0, ($K$1-F32+1)/E32))</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="6"/>
+        <f t="shared" ref="C32" si="8">IF(($K$1-F32+1)/E32&gt;=1,1,IF(($K$1-F32+1)/E32&lt;0,0, ($K$1-F32+1)/E32))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="22"/>
       <c r="E32" s="15">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" ref="E32" si="9">G32+1-F32</f>
+        <v>6</v>
       </c>
       <c r="F32" s="5">
-        <v>43419</v>
+        <v>43747</v>
       </c>
       <c r="G32" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="26"/>
+        <v>43752</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" ref="C33" si="10">IF(($K$1-F33+1)/E33&gt;=1,1,IF(($K$1-F33+1)/E33&lt;0,0, ($K$1-F33+1)/E33))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="15">
+        <f t="shared" ref="E33" si="11">G33+1-F33</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43747</v>
+      </c>
+      <c r="G33" s="5">
+        <v>43748</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+    </row>
+    <row r="34" spans="1:32" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="18">
-        <f>IF(($K$1-F33+1)/E33&gt;=1,1,IF(($K$1-F33+1)/E33&lt;0,0, ($K$1-F33+1)/E33))</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="15">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="F33" s="5">
-        <v>43419</v>
-      </c>
-      <c r="G33" s="5">
-        <v>43432</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="26"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C34" s="18">
-        <f>IF(($K$1-F34+1)/E34&gt;=1,1,IF(($K$1-F34+1)/E34&lt;0,0, ($K$1-F34+1)/E34))</f>
-        <v>1</v>
+        <f t="shared" ref="C34:C37" si="12">IF(($K$1-F34+1)/E34&gt;=1,1,IF(($K$1-F34+1)/E34&lt;0,0, ($K$1-F34+1)/E34))</f>
+        <v>0</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="15">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" ref="E34:E37" si="13">G34+1-F34</f>
+        <v>3</v>
       </c>
       <c r="F34" s="5">
-        <v>43426</v>
+        <v>43747</v>
       </c>
       <c r="G34" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H34" s="21"/>
+        <v>43749</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -2607,12 +2688,12 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="42"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -2620,43 +2701,43 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="26"/>
-    </row>
-    <row r="35" spans="1:32" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C35" s="18">
-        <f>IF(($K$1-F35+1)/E35&gt;=1,1,IF(($K$1-F35+1)/E35&lt;0,0, ($K$1-F35+1)/E35))</f>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="15">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="15">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
       <c r="F35" s="5">
-        <v>43424</v>
+        <v>43747</v>
       </c>
       <c r="G35" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+        <v>43747</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="9"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -2664,33 +2745,33 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="26"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="40" t="s">
-        <v>43</v>
+      <c r="A36" s="40"/>
+      <c r="B36" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C36" s="18">
-        <f>IF(($K$1-F36+1)/E36&gt;=1,1,IF(($K$1-F36+1)/E36&lt;0,0, ($K$1-F36+1)/E36))</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="15">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="F36" s="5">
-        <v>43419</v>
+        <v>43747</v>
       </c>
       <c r="G36" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H36" s="16"/>
+        <v>43748</v>
+      </c>
+      <c r="H36" s="29"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -2699,44 +2780,44 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="42"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C37" s="18">
-        <f>IF(($K$1-F37+1)/E37&gt;=1,1,IF(($K$1-F37+1)/E37&lt;0,0, ($K$1-F37+1)/E37))</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="15">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F37" s="5">
-        <v>43419</v>
+        <v>43749</v>
       </c>
       <c r="G37" s="5">
-        <v>43423</v>
-      </c>
-      <c r="H37" s="21"/>
+        <v>43749</v>
+      </c>
+      <c r="H37" s="29"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -2745,17 +2826,17 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="42"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
@@ -2763,26 +2844,28 @@
       <c r="AF37" s="6"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="7" t="s">
-        <v>65</v>
+      <c r="A38" s="40"/>
+      <c r="B38" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="18">
-        <f>IF(($K$1-F38+1)/E38&gt;=1,1,IF(($K$1-F38+1)/E38&lt;0,0, ($K$1-F38+1)/E38))</f>
-        <v>1</v>
+        <f t="shared" ref="C38:C41" si="14">IF(($K$1-F38+1)/E38&gt;=1,1,IF(($K$1-F38+1)/E38&lt;0,0, ($K$1-F38+1)/E38))</f>
+        <v>0</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="15">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" ref="E38:E41" si="15">G38+1-F38</f>
+        <v>6</v>
       </c>
       <c r="F38" s="5">
-        <v>43425</v>
+        <v>43747</v>
       </c>
       <c r="G38" s="5">
-        <v>43433</v>
-      </c>
-      <c r="H38" s="24"/>
+        <v>43752</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -2791,44 +2874,44 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="42"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
       <c r="AF38" s="6"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C39" s="18">
-        <f>IF(($K$1-F39+1)/E39&gt;=1,1,IF(($K$1-F39+1)/E39&lt;0,0, ($K$1-F39+1)/E39))</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="F39" s="5">
-        <v>43424</v>
+        <v>43747</v>
       </c>
       <c r="G39" s="5">
-        <v>43424</v>
-      </c>
-      <c r="H39" s="21"/>
+        <v>43748</v>
+      </c>
+      <c r="H39" s="29"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -2837,44 +2920,44 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="42"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="9"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="26"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C40" s="18">
-        <f>IF(($K$1-F40+1)/E40&gt;=1,1,IF(($K$1-F40+1)/E40&lt;0,0, ($K$1-F40+1)/E40))</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="15">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="F40" s="5">
-        <v>43424</v>
+        <v>43747</v>
       </c>
       <c r="G40" s="5">
-        <v>43427</v>
-      </c>
-      <c r="H40" s="21"/>
+        <v>43749</v>
+      </c>
+      <c r="H40" s="29"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -2883,44 +2966,44 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="42"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C41" s="18">
-        <f>IF(($K$1-F41+1)/E41&gt;=1,1,IF(($K$1-F41+1)/E41&lt;0,0, ($K$1-F41+1)/E41))</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="15">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="F41" s="5">
-        <v>43426</v>
+        <v>43747</v>
       </c>
       <c r="G41" s="5">
-        <v>43431</v>
-      </c>
-      <c r="H41" s="21"/>
+        <v>43749</v>
+      </c>
+      <c r="H41" s="29"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -2929,44 +3012,44 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="42"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="26"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C42" s="18">
-        <f>IF(($K$1-F42+1)/E42&gt;=1,1,IF(($K$1-F42+1)/E42&lt;0,0, ($K$1-F42+1)/E42))</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="15">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>G42+1-F42</f>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>43430</v>
+        <v>43752</v>
       </c>
       <c r="G42" s="5">
-        <v>43431</v>
-      </c>
-      <c r="H42" s="25"/>
+        <v>43752</v>
+      </c>
+      <c r="H42" s="29"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -2975,13 +3058,13 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="42"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="9"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -2989,30 +3072,30 @@
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C43" s="18">
-        <f>IF(($K$1-F43+1)/E43&gt;=1,1,IF(($K$1-F43+1)/E43&lt;0,0, ($K$1-F43+1)/E43))</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="15">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>G43+1-F43</f>
+        <v>1</v>
       </c>
       <c r="F43" s="5">
-        <v>43430</v>
+        <v>43752</v>
       </c>
       <c r="G43" s="5">
-        <v>43431</v>
-      </c>
-      <c r="H43" s="25"/>
+        <v>43752</v>
+      </c>
+      <c r="H43" s="29"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3021,13 +3104,13 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="42"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="9"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -3035,30 +3118,32 @@
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="26"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="18">
-        <f>IF(($K$1-F44+1)/E44&gt;=1,1,IF(($K$1-F44+1)/E44&lt;0,0, ($K$1-F44+1)/E44))</f>
-        <v>1</v>
+        <f t="shared" ref="C44:C48" si="16">IF(($K$1-F44+1)/E44&gt;=1,1,IF(($K$1-F44+1)/E44&lt;0,0, ($K$1-F44+1)/E44))</f>
+        <v>0</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="15">
         <f>G44+1-F44</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5">
-        <v>43428</v>
+        <v>43753</v>
       </c>
       <c r="G44" s="5">
-        <v>43434</v>
-      </c>
-      <c r="H44" s="16"/>
+        <v>43753</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3067,14 +3152,14 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="42"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
+      <c r="X44" s="9"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
@@ -3085,26 +3170,28 @@
       <c r="AF44" s="6"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="18">
-        <f>IF(($K$1-F45+1)/E45&gt;=1,1,IF(($K$1-F45+1)/E45&lt;0,0, ($K$1-F45+1)/E45))</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="15">
         <f>G45+1-F45</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="5">
-        <v>43431</v>
+        <v>43753</v>
       </c>
       <c r="G45" s="5">
-        <v>43432</v>
-      </c>
-      <c r="H45" s="25"/>
+        <v>43753</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3113,44 +3200,46 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="42"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
+      <c r="X45" s="9"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="18">
-        <f>IF(($K$1-F46+1)/E46&gt;=1,1,IF(($K$1-F46+1)/E46&lt;0,0, ($K$1-F46+1)/E46))</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="15">
         <f>G46+1-F46</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="5">
-        <v>43433</v>
+        <v>43753</v>
       </c>
       <c r="G46" s="5">
-        <v>43434</v>
-      </c>
-      <c r="H46" s="25"/>
+        <v>43753</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3159,14 +3248,14 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="42"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
+      <c r="X46" s="9"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -3177,26 +3266,28 @@
       <c r="AF46" s="6"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="18">
-        <f>IF(($K$1-F47+1)/E47&gt;=1,1,IF(($K$1-F47+1)/E47&lt;0,0, ($K$1-F47+1)/E47))</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="15">
         <f>G47+1-F47</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" s="5">
-        <v>43434</v>
+        <v>43754</v>
       </c>
       <c r="G47" s="5">
-        <v>43437</v>
-      </c>
-      <c r="H47" s="25"/>
+        <v>43754</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3205,31 +3296,31 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="42"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
+      <c r="Y47" s="9"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="10"/>
+      <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="18">
-        <f>IF(($K$1-F48+1)/E48&gt;=1,1,IF(($K$1-F48+1)/E48&lt;0,0, ($K$1-F48+1)/E48))</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="15">
@@ -3237,12 +3328,14 @@
         <v>1</v>
       </c>
       <c r="F48" s="5">
-        <v>43438</v>
+        <v>43755</v>
       </c>
       <c r="G48" s="5">
-        <v>43438</v>
-      </c>
-      <c r="H48" s="16"/>
+        <v>43755</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3251,8 +3344,8 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="42"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
@@ -3260,50 +3353,176 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="Z48" s="9"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="26"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="10"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="9"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-    </row>
-    <row r="56" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="E51"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="E52"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="E53"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="10"/>
+    </row>
+    <row r="54" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="E54"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="E55"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="E56"/>
@@ -3333,13 +3552,12 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="E57"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3360,171 +3578,41 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
-      <c r="AC57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD57" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E58"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="10"/>
-    </row>
-    <row r="59" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E59"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-    </row>
-    <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E60"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E61"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-    </row>
-    <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E62"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E63"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E64"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -3545,27 +3633,22 @@
       <c r="G67" s="12"/>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E68"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E69"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E70"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E71"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E72"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
     </row>
@@ -3897,30 +3980,9 @@
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-    </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-    </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-    </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-    </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="K1:AA1"/>
-    <mergeCell ref="A4:A55"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
